--- a/ExcelToSQL/test2.xlsx
+++ b/ExcelToSQL/test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cy295\OneDrive\Desktop\summer programs\Triangle_Database_Alert_System\ExcelToSQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9597843E-8FD7-4B6E-ADE6-6C4361244D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858FEFCD-1C14-40FB-A493-D72956B29D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="1635" windowWidth="24615" windowHeight="12885" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="1635" windowWidth="24615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="170">
   <si>
     <t>State</t>
   </si>
@@ -420,6 +420,123 @@
   </si>
   <si>
     <t>Closed</t>
+  </si>
+  <si>
+    <t>Notations used</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attention: Please use proper notations on the left to avoid ambiguity </t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>If the task is not required for the client, leave it blank</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The schedule table is priority, please finish it first and send it back. </t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Semiweekly</t>
+  </si>
+  <si>
+    <t>Then you can work on client information for analytics afterwards.</t>
+  </si>
+  <si>
+    <t>SemiMonthly</t>
+  </si>
+  <si>
+    <t>Yearly</t>
+  </si>
+  <si>
+    <t>Biweekly(Once every two weeks)</t>
+  </si>
+  <si>
+    <t>payroll</t>
+  </si>
+  <si>
+    <t>accountant自己设置</t>
+  </si>
+  <si>
+    <t>if monthly then 15th.</t>
+  </si>
+  <si>
+    <t>941 Form Filing</t>
+  </si>
+  <si>
+    <t>Form Filing: Quarterly</t>
+  </si>
+  <si>
+    <t>State withholding</t>
+  </si>
+  <si>
+    <t>monthly or quarterly</t>
+  </si>
+  <si>
+    <t>State UI</t>
+  </si>
+  <si>
+    <t>quarterly</t>
+  </si>
+  <si>
+    <t>quarterly or yearly</t>
+  </si>
+  <si>
+    <t>Sales Tax: Monthly</t>
+  </si>
+  <si>
+    <t>Monthly, every 20th</t>
+  </si>
+  <si>
+    <t>County Sales Tax</t>
+  </si>
+  <si>
+    <t>Bookkeeping</t>
+  </si>
+  <si>
+    <t>Yes or No</t>
+  </si>
+  <si>
+    <t>Your name</t>
+  </si>
+  <si>
+    <t>Business name of client's restaurant, shop..etc</t>
+  </si>
+  <si>
+    <t>Name of the client</t>
+  </si>
+  <si>
+    <t>Annual service fee or predicted annual service fee</t>
+  </si>
+  <si>
+    <t>Temporary List of Businesses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industry of the client's business. Select one from the list on the right </t>
+  </si>
+  <si>
+    <t>(Sole Proprietorship，partnership等）</t>
+  </si>
+  <si>
+    <t>Number of employees. Put in 0-20, 20-50, 50-100, 100+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact information of the client. Mostly Phone numbers </t>
+  </si>
+  <si>
+    <t>Active(正在做的）, Closed（以前做的现在不做了）, Pending（打算做但还没开始）</t>
+  </si>
+  <si>
+    <t>Put in the google drive folder link if applicable</t>
   </si>
 </sst>
 </file>
@@ -946,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,32 +1083,20 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
       <c r="J1" s="1" t="s">
         <v>71</v>
       </c>
@@ -1004,746 +1109,353 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" t="s">
-        <v>64</v>
-      </c>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>19</v>
+      <c r="A10" s="4">
+        <v>941</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>23</v>
+      <c r="A14" s="5">
+        <v>940</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" t="s">
-        <v>64</v>
-      </c>
-      <c r="I22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="C22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" t="s">
-        <v>64</v>
-      </c>
-      <c r="I23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" t="s">
-        <v>64</v>
-      </c>
-      <c r="I24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>166</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" t="s">
-        <v>70</v>
-      </c>
-      <c r="H25" t="s">
-        <v>64</v>
-      </c>
-      <c r="I25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26" t="s">
-        <v>64</v>
-      </c>
-      <c r="I26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" t="s">
-        <v>64</v>
-      </c>
-      <c r="I27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H28" t="s">
-        <v>64</v>
-      </c>
-      <c r="I28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" t="s">
-        <v>39</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
       <c r="C29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" t="s">
-        <v>70</v>
-      </c>
-      <c r="H29" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" t="s">
-        <v>70</v>
-      </c>
-      <c r="H30" t="s">
-        <v>64</v>
-      </c>
-      <c r="I30" t="s">
-        <v>64</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="C30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" location="'88 CHINESE FOOD'!R1C1" display="88 CHINESE FOOD" xr:uid="{2E9B1209-16E8-4521-8855-BAB6FFB07DC5}"/>
-    <hyperlink ref="A3" location="'ASIAN DRAGON'!R1C1" display="ASIAN DRAGON FAYETTEVILLE CHEN" xr:uid="{8F96A0D3-0472-4B9D-8AE8-326C5201AF49}"/>
-    <hyperlink ref="A4" location="'CHEN ASIAN EXPRESS INC'!A1" display="CHEN ASIAN EXPRESS INC" xr:uid="{43AA185C-3510-452F-A5D0-57B6BD3F63E6}"/>
-    <hyperlink ref="A5" location="'CHENS KITCHEN'!A1" display="Z.A.I KITCHEN INC" xr:uid="{35533411-550F-48E0-B5D4-E5A1784B23D6}"/>
-    <hyperlink ref="A6" location="'CHINA KITCHEN'!A1" display="CHINA KITCHEN IN NORLINA" xr:uid="{F2407DA0-7E45-4DC1-B5D3-6FA1D7890205}"/>
-    <hyperlink ref="A7" location="'CHINA TOWN NBY'!A1" display="CHINA TOWN NBY LLC" xr:uid="{0A5F5CA0-1EB6-4D60-9708-49A57954C752}"/>
-    <hyperlink ref="A8" location="'CHINA STAR OF NC INC'!A1" display="CHINA STAR OF NC INC" xr:uid="{A375400A-C93C-44A9-B213-4DA1EA80A2E8}"/>
-    <hyperlink ref="A9" location="'CHINA WOK'!A1" display="CHINA WOK OF RAEFORD INC" xr:uid="{8B7F811B-0038-47BE-8E89-62BC049F21A1}"/>
-    <hyperlink ref="A11" location="'FUJI 688 LLC'!A1" display="FUJI 688 LLC" xr:uid="{8245A0F4-B618-46F3-8AB4-CEAFA8A7247E}"/>
-    <hyperlink ref="A13" location="'H&amp;Z INDUSTRY'!A1" display="H &amp; Z INDUSTRY GROUP, INC" xr:uid="{DC32F9FB-E5F0-4B00-8D1B-4A30A5CD1718}"/>
-    <hyperlink ref="A14" location="'HIBACHI HOUSE INC'!A1" display="HIBACHI HOUSE INC" xr:uid="{56C310EC-228F-467E-978B-9AFD8DA56165}"/>
-    <hyperlink ref="A15" location="'HOKKAIDO EXPRESS INC'!A1" display="HOKKAIDO EXPRESS INC" xr:uid="{59A44F09-7AE4-4E55-A579-A8746BE504AF}"/>
-    <hyperlink ref="A16" location="'HOT BOWL'!A1" display="HOT BOWL INC" xr:uid="{5C2CA2C9-E2B2-43A4-B1A4-DCABA6251D20}"/>
-    <hyperlink ref="A17" location="'HOT WOK'!A1" display="HOT WOK NC INC" xr:uid="{66E33553-42C5-47D3-B8D9-66A674581019}"/>
-    <hyperlink ref="A18" location="'JO JO 168'!R1C1" display="JO JO 168 INC" xr:uid="{0F9DD66E-86A5-4757-B4BA-526E61508C97}"/>
-    <hyperlink ref="A19" location="'JING GE LAN '!A1" display="JING GE LAN INC" xr:uid="{2A0570E2-79A3-4B3F-9443-B34CEB140DC5}"/>
-    <hyperlink ref="A20" location="'NEW XFC'!A1" display="NEW XFC LLC" xr:uid="{A481D4CF-18E2-42F9-9318-8D5268DA806A}"/>
-    <hyperlink ref="A21" location="'NEW YORK CHINA'!A1" display="NEW YORK CHINA INC" xr:uid="{8CF1E270-5BAD-4FF4-9844-0DEBA8A6601A}"/>
-    <hyperlink ref="A22" location="'RAINBOW KING'!R1C1" display="RAINBOW KING" xr:uid="{EEDDF9C9-10EC-4F02-9890-C575EB6EB523}"/>
-    <hyperlink ref="A23" location="'RTP INTERNATIONAL CORPORATION'!R1C1" display="RTP INTERNATIONAL CORPORATION" xr:uid="{B8DF5492-DDE6-4454-A02B-10B3F810095A}"/>
-    <hyperlink ref="A24" location="SAKI!A1" display="SAKI LLC " xr:uid="{A3CAB5E7-8C0A-45BB-973F-6288D5D2BF00}"/>
-    <hyperlink ref="A25" location="'SYNNOVATOR INC'!R1C1" display="SYNNOVATOR INC" xr:uid="{1F16DFD9-4726-42DB-9E37-78238B4ED9C6}"/>
-    <hyperlink ref="A26" location="'WU FAMILY FROUP INC'!R1C1" display="WU FAMILY GROUP INC" xr:uid="{1352AF3A-CF82-4234-90CA-93EB8C5743B6}"/>
-    <hyperlink ref="A27" location="'YUS FOOD GROUP'!A1" display="YU'S FOOD GROUP (HONG KONG RESTAURANT@WAKE FOREST)" xr:uid="{BE8AF073-3B64-45F3-9898-9D6190225EA1}"/>
-    <hyperlink ref="A28" location="'ZHENGS CHINA HOUSE INC'!A1" display="ZHENG'S CHINA HOUSE INC " xr:uid="{AC394655-B57F-4F83-B100-526C392D6BA2}"/>
-    <hyperlink ref="A30" location="'JING GE LAN '!A1" display="JING GE LAN INC" xr:uid="{B7BD8F47-F56F-48AA-B54F-BF2C794F3EEA}"/>
-    <hyperlink ref="A12" location="'H &amp; Q LUCKY'!A1" display="H &amp; Q LUCKY INC" xr:uid="{3AC44074-28FC-4035-BBA2-D317E2C3AA3D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2546,7 +2258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AFB88DC-E46B-4BCC-AAFE-8986296318D3}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
